--- a/uploads/17-11-2021-8.xlsx
+++ b/uploads/17-11-2021-8.xlsx
@@ -1198,13 +1198,13 @@
         <v>1022</v>
       </c>
       <c r="F14" s="25">
-        <v>6.5</v>
+        <v>1022</v>
       </c>
       <c r="G14" s="25">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="H14" s="25">
-        <v>7.5</v>
+        <v>1022</v>
       </c>
       <c r="I14" s="25">
         <v>1030</v>
@@ -1215,10 +1215,10 @@
         <v>1030</v>
       </c>
       <c r="M14" s="25">
-        <v>3.0</v>
+        <v>7.5</v>
       </c>
       <c r="N14" s="25">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="O14" s="25">
         <v>7.5</v>
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="AK14" s="20">
-        <v>176.5</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1296,7 +1296,9 @@
       <c r="K15" s="27"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="25">
+        <v>2.0</v>
+      </c>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="27"/>
@@ -1338,9 +1340,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="25"/>
-      <c r="M16" s="25">
-        <v>2.0</v>
-      </c>
+      <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -1387,7 +1387,9 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="27">
+        <v>2.0</v>
+      </c>
       <c r="R17" s="27"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -1430,7 +1432,9 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="27">
+        <v>2.0</v>
+      </c>
       <c r="R18" s="27"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>

--- a/uploads/17-11-2021-8.xlsx
+++ b/uploads/17-11-2021-8.xlsx
@@ -1229,7 +1229,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="25">
-        <v>7.5</v>
+        <v>5.0</v>
       </c>
       <c r="T14" s="25">
         <v>7.5</v>
@@ -1238,7 +1238,7 @@
         <v>7.5</v>
       </c>
       <c r="V14" s="25">
-        <v>7.5</v>
+        <v>2.0</v>
       </c>
       <c r="W14" s="25">
         <v>7.5</v>
@@ -1255,7 +1255,7 @@
         <v>7.5</v>
       </c>
       <c r="AC14" s="25">
-        <v>7.5</v>
+        <v>0.0</v>
       </c>
       <c r="AD14" s="25">
         <v>7.5</v>
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="AK14" s="20">
-        <v>168.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1303,10 +1303,14 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="25"/>
+      <c r="S15" s="25">
+        <v>2.0</v>
+      </c>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>5.5</v>
+      </c>
       <c r="W15" s="25"/>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
@@ -1356,7 +1360,9 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
+      <c r="AC16" s="25">
+        <v>7.5</v>
+      </c>
       <c r="AD16" s="25"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>

--- a/uploads/17-11-2021-8.xlsx
+++ b/uploads/17-11-2021-8.xlsx
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="AK14" s="20">
-        <v>160.0</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="15" spans="1:37">
